--- a/County-SO-Data/Grant/Grant.xlsx
+++ b/County-SO-Data/Grant/Grant.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidris\Documents\GitHub\wa-pursuit-pdr-data\County-SO-Data\Grant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\PoliceReform\Pursuits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DE0B93-561E-422F-BCD8-D83268F8AE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673A6F4D-6385-4DE9-8E53-1FE591C04BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{92F07DF9-5548-4003-A1DE-5012BB26D622}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{92F07DF9-5548-4003-A1DE-5012BB26D622}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -119,9 +119,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,7 +159,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -265,7 +265,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,7 +407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,7 +418,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -694,14 +694,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Classified as Confidential</oddFooter>
-  </headerFooter>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{73e1574c-c8ec-44e1-b6a3-6c03693693f2}" enabled="1" method="Standard" siteId="{e99791a9-4b08-407d-9055-4eaad8add382}" contentBits="2" removed="0"/>
-</clbl:labelList>
 </file>